--- a/Data/EC/NIT-9015817459.xlsx
+++ b/Data/EC/NIT-9015817459.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37603BC5-41CF-4BBF-A87C-6730856B19B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99BD5D9A-7177-40BC-A69C-2753958968EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{191B7E21-D48A-42CD-B876-6A1787BAE5F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52B21F28-AF81-46BA-9427-E893D37B2C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,48 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9315662</t>
+  </si>
+  <si>
+    <t>ERICH RAFAEL HERRERA CABALLERO</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>1193522083</t>
   </si>
   <si>
@@ -74,13 +116,10 @@
     <t>2211</t>
   </si>
   <si>
-    <t>9315662</t>
-  </si>
-  <si>
-    <t>ERICH RAFAEL HERRERA CABALLERO</t>
-  </si>
-  <si>
-    <t>2302</t>
+    <t>1052219882</t>
+  </si>
+  <si>
+    <t>CARLOSMARIO SEPULVEDA PEDROZO</t>
   </si>
   <si>
     <t>73119562</t>
@@ -89,49 +128,10 @@
     <t>GUILLERMO RODRIGUEZ PIÑERES</t>
   </si>
   <si>
-    <t>2303</t>
-  </si>
-  <si>
     <t>1143412227</t>
   </si>
   <si>
     <t>LEIDY MARIAM BELLIDO ARROYO</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1052219882</t>
-  </si>
-  <si>
-    <t>CARLOSMARIO SEPULVEDA PEDROZO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD65A68-4011-56D0-D50D-37BC540674F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09015BDA-3E06-3680-96F5-FC4C7A155336}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DAA46A-4961-49D6-BB4A-0C494738975F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939AAD3-3168-48D6-84C3-2CB8080A139A}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1074,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28000</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1088,16 +1088,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
         <v>1160000</v>
@@ -1111,16 +1111,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>15467</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
         <v>1160000</v>
@@ -1134,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1157,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1180,16 +1180,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>1547</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
         <v>1160000</v>
@@ -1203,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1226,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1249,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1272,16 +1272,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>38667</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
         <v>1160000</v>
@@ -1295,10 +1295,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
@@ -1318,16 +1318,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G27" s="18">
         <v>1160000</v>
@@ -1341,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>28000</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1364,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1387,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1410,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1433,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1456,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1479,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1502,13 +1502,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1525,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1548,16 +1548,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>38667</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1571,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1594,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F39" s="18">
         <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1617,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1640,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1663,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F42" s="18">
         <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1686,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1709,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1732,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1755,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1778,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1801,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1824,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F49" s="18">
-        <v>46400</v>
+        <v>15467</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1847,16 +1847,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F50" s="24">
-        <v>46400</v>
+        <v>1547</v>
       </c>
       <c r="G50" s="24">
         <v>1160000</v>

--- a/Data/EC/NIT-9015817459.xlsx
+++ b/Data/EC/NIT-9015817459.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99BD5D9A-7177-40BC-A69C-2753958968EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5845CFA-D94B-468A-9EEA-3C9C8880FB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52B21F28-AF81-46BA-9427-E893D37B2C76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98B062D0-E3F5-48A4-B3B9-986B9D786E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,73 +65,73 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1193522083</t>
+  </si>
+  <si>
+    <t>ESTIBENSON RAFAEL PALACIN VILLAREAL</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
     <t>9315662</t>
   </si>
   <si>
     <t>ERICH RAFAEL HERRERA CABALLERO</t>
   </si>
   <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>73119562</t>
+  </si>
+  <si>
+    <t>GUILLERMO RODRIGUEZ PIÑERES</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>1143412227</t>
+  </si>
+  <si>
+    <t>LEIDY MARIAM BELLIDO ARROYO</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1052219882</t>
+  </si>
+  <si>
+    <t>CARLOSMARIO SEPULVEDA PEDROZO</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
     <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1193522083</t>
-  </si>
-  <si>
-    <t>ESTIBENSON RAFAEL PALACIN VILLAREAL</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>1052219882</t>
-  </si>
-  <si>
-    <t>CARLOSMARIO SEPULVEDA PEDROZO</t>
-  </si>
-  <si>
-    <t>73119562</t>
-  </si>
-  <si>
-    <t>GUILLERMO RODRIGUEZ PIÑERES</t>
-  </si>
-  <si>
-    <t>1143412227</t>
-  </si>
-  <si>
-    <t>LEIDY MARIAM BELLIDO ARROYO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09015BDA-3E06-3680-96F5-FC4C7A155336}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368CA272-4A68-2421-C90F-7BFB145CC2B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939AAD3-3168-48D6-84C3-2CB8080A139A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03603B62-A2F6-4EED-9F24-D4F1CCA9C9BB}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1074,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>28000</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1088,16 +1088,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G17" s="18">
         <v>1160000</v>
@@ -1111,16 +1111,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>15467</v>
       </c>
       <c r="G18" s="18">
         <v>1160000</v>
@@ -1134,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1157,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1180,16 +1180,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>1547</v>
       </c>
       <c r="G21" s="18">
         <v>1160000</v>
@@ -1203,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1226,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1249,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1272,16 +1272,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>38667</v>
       </c>
       <c r="G25" s="18">
         <v>1160000</v>
@@ -1295,10 +1295,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
@@ -1318,16 +1318,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
         <v>1160000</v>
@@ -1341,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F28" s="18">
-        <v>28000</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1364,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1387,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1410,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1433,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1456,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1479,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1502,13 +1502,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1525,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1548,16 +1548,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F37" s="18">
-        <v>38667</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1571,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1594,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F39" s="18">
         <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1617,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F40" s="18">
         <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1640,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F41" s="18">
         <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1663,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F42" s="18">
         <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1686,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F43" s="18">
         <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1709,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F44" s="18">
         <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1732,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1755,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1778,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1801,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1824,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
-        <v>15467</v>
+        <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1847,16 +1847,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>21</v>
-      </c>
       <c r="F50" s="24">
-        <v>1547</v>
+        <v>46400</v>
       </c>
       <c r="G50" s="24">
         <v>1160000</v>
